--- a/form4/expansao_atualizado_form4.xlsx
+++ b/form4/expansao_atualizado_form4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="01.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="03.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="04.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="05.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="06.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="07.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="08.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="09.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form4/expansao_atualizado_form4.xlsx
+++ b/form4/expansao_atualizado_form4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="02.25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="03.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="04.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="05.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="06.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="07.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="08.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="09.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form4/expansao_atualizado_form4.xlsx
+++ b/form4/expansao_atualizado_form4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="01.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="03.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="04.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="05.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="06.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="07.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="08.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="09.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="E58" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>07/03/2025, 11/02/2025, 07/03/2025</t>
+          <t>07/03/2025, 07/03/2025, 11/02/2025</t>
         </is>
       </c>
       <c r="G58" s="7" t="inlineStr">
@@ -9884,8 +9884,10 @@
           <t>Colorado</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -10339,7 +10341,7 @@
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -12290,7 +12292,7 @@
       </c>
       <c r="E52" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
@@ -12743,12 +12745,12 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>09/04/2025, 08/04/2025</t>
+          <t>08/04/2025, 09/04/2025</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
@@ -14847,14 +14849,14 @@
           <t>Moacir Roberto Heimann</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="7" t="inlineStr">
@@ -15299,8 +15301,8 @@
     <col width="31" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -15427,12 +15429,16 @@
           <t>Marcia Regina Willers</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15509,12 +15515,16 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15550,12 +15560,16 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15591,12 +15605,16 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n"/>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15632,12 +15650,16 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n"/>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15919,12 +15941,16 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15960,12 +15986,16 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n"/>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16001,12 +16031,16 @@
           <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
         </is>
       </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16042,12 +16076,16 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16120,12 +16158,16 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16161,12 +16203,16 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n"/>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16202,12 +16248,16 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="n"/>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16243,12 +16293,16 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n"/>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16284,12 +16338,16 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n"/>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16366,12 +16424,16 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n"/>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16407,12 +16469,16 @@
           <t>Savana Lemes Rodrigues</t>
         </is>
       </c>
-      <c r="E27" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="n"/>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16448,12 +16514,16 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="n"/>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16489,12 +16559,16 @@
           <t>Tais Muller</t>
         </is>
       </c>
-      <c r="E29" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16530,12 +16604,16 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="n"/>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16571,12 +16649,16 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="n"/>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16612,12 +16694,16 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="n"/>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16653,12 +16739,16 @@
           <t>Gislaine Souza Rosa</t>
         </is>
       </c>
-      <c r="E33" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n"/>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16694,12 +16784,16 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="n"/>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16735,12 +16829,16 @@
           <t>Suzana Gotardo de Meira</t>
         </is>
       </c>
-      <c r="E35" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n"/>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16776,12 +16874,16 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n"/>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16817,12 +16919,16 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n"/>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16858,12 +16964,16 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n"/>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16899,12 +17009,16 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="n"/>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16981,12 +17095,16 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17022,12 +17140,16 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="n"/>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17063,12 +17185,16 @@
           <t>Camila Maytana Flores da Silva</t>
         </is>
       </c>
-      <c r="E43" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17104,12 +17230,16 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n"/>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17145,12 +17275,16 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="n"/>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17268,12 +17402,16 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n"/>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17309,12 +17447,16 @@
           <t>Moacir Roberto Heimann</t>
         </is>
       </c>
-      <c r="E49" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n"/>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17350,12 +17492,16 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17391,12 +17537,16 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="n"/>
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17432,12 +17582,16 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="n"/>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17473,12 +17627,16 @@
           <t>Yuri Luiz de Oliveira</t>
         </is>
       </c>
-      <c r="E53" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17558,7 +17716,7 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
@@ -17596,12 +17754,16 @@
           <t>Diego Batista</t>
         </is>
       </c>
-      <c r="E56" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="n"/>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17637,12 +17799,16 @@
           <t>Fernanda Naiara Voinarski</t>
         </is>
       </c>
-      <c r="E57" s="15" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="n"/>
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
           <t>Não</t>
